--- a/biology/Biologie cellulaire et moléculaire/Neuréguline/Neuréguline.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Neuréguline/Neuréguline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Neur%C3%A9guline</t>
+          <t>Neuréguline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Neuréguline ou  NRG est une protéine qui joue un rôle dans la croissance première du cœur et du système nerveux, elle peut déclencher la croissance de cellules du muscle cardiaque (cardiomyocytes mono-nucléées) en agissant sur les récepteurs à tyrosine kinase, ErbB4, et induit une restauration des fonctions du cœur.
 </t>
